--- a/xtt_demo/ZXXT_DEMO_050_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_050_R.XLSX
@@ -153,7 +153,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Total count: 15 </t>
+    <t>Total count:                                                                                                  15</t>
   </si>
 </sst>
 </file>
